--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Baker.Fall.121019-1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Baker.Fall.121019-1.xlsx_with_dialog_acts.xlsx
@@ -639,12 +639,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -765,12 +765,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1269,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1353,12 +1353,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1605,12 +1605,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2571,12 +2571,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2739,12 +2739,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2781,12 +2781,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2865,12 +2865,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4083,12 +4083,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4167,12 +4167,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4335,12 +4335,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4377,12 +4377,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4629,12 +4629,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4755,12 +4755,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4965,12 +4965,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5175,12 +5175,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
